--- a/BackTest/2020-01-24 BackTest CON.xlsx
+++ b/BackTest/2020-01-24 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -14476,7 +14476,7 @@
         <v>9314802.455500001</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>9168796.807300001</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>9011853.643300002</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>9215912.423300002</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>9055541.500700003</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>11057707.7391</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>10881691.2591</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>11157834.05781508</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>9928806.835115079</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>10038942.13511508</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>9993146.264915079</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>10008164.71491508</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>10180938.17601508</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>10180938.17601508</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>10134881.59601508</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>10244013.20601508</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>10158620.95601508</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>10158620.95601508</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>10464124.13393312</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>10423073.70393312</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>10331961.77393312</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>10332161.77393312</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>10501342.59043312</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>11253300.00593312</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>11221260.64593312</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>11685380.49913312</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>11334593.48013312</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>11335373.48013312</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>10571779.90113312</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>9728063.569133123</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>8104915.879133124</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>6772437.429733124</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>7074505.289733124</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>7150598.769733124</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>5876397.429733125</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>5107079.473033125</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>5268905.093033125</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>5268905.093033125</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>5126853.433033125</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>5244983.069633124</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>5247663.905633125</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>5372729.095633125</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>5286881.697533125</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>5347956.727533125</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>5272864.477533125</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>5273064.477533125</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>5166934.097533125</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>5270060.787533126</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>5160926.717533126</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>5319475.263533126</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>5348508.473533126</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>5430609.333533126</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>5396567.513533126</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>5318989.227933124</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>5977222.996533122</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>5977222.996533122</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>5977222.996533122</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>5928230.661733122</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>5675495.637233121</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>4357868.133733121</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>4936807.069633121</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>4906807.069633121</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>4931837.819633121</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>4866149.121633121</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>4950907.043133121</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>4602687.710733121</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>4119233.634433121</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>3899144.854433122</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>3751839.771933122</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>3851121.541933122</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>3833099.401933121</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>3850120.311933122</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>3850120.311933122</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>3788379.322133122</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>3873483.872133121</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>3689776.130933121</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>3712870.517833122</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>3602735.217833122</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>3567692.167833122</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>3619956.127833122</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>3619956.127833122</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>3565689.707833122</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>3565689.707833122</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>3565189.707833122</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>2454730.375533122</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>2454730.375533122</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>2454730.375533122</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>2406471.335533122</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>2333381.545533122</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>2333381.545533122</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>2249674.615433122</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>1797716.088133122</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -31108,11 +31108,17 @@
         <v>-6480010.870083938</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>3.026</v>
+      </c>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31141,11 +31147,17 @@
         <v>-6338397.638483939</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>3.025</v>
+      </c>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31174,11 +31186,17 @@
         <v>-6366432.078483939</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31207,11 +31225,17 @@
         <v>-6319374.26848394</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>3.032</v>
+      </c>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31240,11 +31264,17 @@
         <v>-6425504.648483939</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>3.049</v>
+      </c>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31273,7 +31303,7 @@
         <v>-6637765.408483939</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>3.044</v>
@@ -31281,7 +31311,7 @@
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L936" t="n">
@@ -31312,7 +31342,7 @@
         <v>-6608729.738483939</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>3.039</v>
@@ -31351,9 +31381,11 @@
         <v>-6581696.528483939</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>3.064</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -31388,9 +31420,11 @@
         <v>-6663797.38848394</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31647,9 +31681,11 @@
         <v>-8227790.630183939</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -31684,9 +31720,11 @@
         <v>-8191746.350183939</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>3.065</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -31721,9 +31759,11 @@
         <v>-8134676.240183938</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>3.073</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -31832,9 +31872,11 @@
         <v>-8169414.511183938</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>3.052</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -31921,6 +31963,6 @@
       <c r="M953" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest CON.xlsx
+++ b/BackTest/2020-01-24 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -14443,7 +14443,7 @@
         <v>9416598.725500001</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>9314802.455500001</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>9168796.807300001</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>9014998.297300002</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>9106579.583300002</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>9215912.423300002</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>9116790.653300002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>9055541.500700003</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>8137146.759000002</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>8194416.869000003</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>8786704.601200003</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>8970513.861200001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>11119189.3472</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>11057907.7391</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>10881691.2591</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>10429656.2588</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>11157834.05781508</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>10651091.27871508</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>10468050.68871508</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>10450468.08431508</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>10464485.30431508</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>10420431.18431508</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>10236516.19531508</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>10273761.70531508</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>10325103.58471508</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>9928806.835115079</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>10038942.13511508</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>9993146.264915079</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>10008164.71491508</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>10180938.17601508</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>10180938.17601508</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>10134881.59601508</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>10244013.20601508</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>10158620.95601508</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>10158620.95601508</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>10464124.13393312</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>10423073.70393312</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>10331961.77393312</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>10332161.77393312</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>10501342.59043312</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>11253300.00593312</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>11221260.64593312</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>8104915.879133124</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>6772437.429733124</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>7074505.289733124</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>7150598.769733124</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>5876397.429733125</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>5107079.473033125</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>5268905.093033125</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>5268905.093033125</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>5126853.433033125</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>5244983.069633124</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>5247663.905633125</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>5372729.095633125</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>5286881.697533125</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>5347956.727533125</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>5272864.477533125</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>5273064.477533125</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>5166934.097533125</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>5270060.787533126</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>5160926.717533126</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>5319475.263533126</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>5348508.473533126</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>5430609.333533126</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>5396567.513533126</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>4602687.710733121</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>4119233.634433121</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>3899144.854433122</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>3751839.771933122</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>3851121.541933122</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>3833099.401933121</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>3850120.311933122</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>3850120.311933122</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>3788379.322133122</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>3873483.872133121</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>3689776.130933121</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>3712870.517833122</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>3602735.217833122</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>3567692.167833122</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>3619956.127833122</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>3619956.127833122</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>3565689.707833122</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>3565689.707833122</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>3565189.707833122</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>2454730.375533122</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>2454730.375533122</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>2406471.335533122</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>2333381.545533122</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>2333381.545533122</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>2249674.615433122</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>1797716.088133122</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-6248308.26553061</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31420,11 +31420,9 @@
         <v>-6663797.38848394</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
-      </c>
-      <c r="I939" t="n">
-        <v>3.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31681,11 +31679,9 @@
         <v>-8227790.630183939</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>3.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -31720,11 +31716,9 @@
         <v>-8191746.350183939</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>3.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -31759,11 +31753,9 @@
         <v>-8134676.240183938</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>3.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -31872,11 +31864,9 @@
         <v>-8169414.511183938</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>3.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -31963,6 +31953,6 @@
       <c r="M953" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest CON.xlsx
+++ b/BackTest/2020-01-24 BackTest CON.xlsx
@@ -14443,7 +14443,7 @@
         <v>9416598.725500001</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>9314802.455500001</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>9168796.807300001</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>9014998.297300002</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>9106579.583300002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>9215912.423300002</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>9116790.653300002</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>9055541.500700003</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>8137146.759000002</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>8194416.869000003</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>8786704.601200003</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>8970513.861200001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>11119189.3472</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>11057907.7391</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>11157834.05781508</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>10651091.27871508</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>10348345.08431508</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>10450468.08431508</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>10464485.30431508</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>10420431.18431508</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>10236516.19531508</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>10273761.70531508</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>10325103.58471508</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>10331961.77393312</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>10387964.70033312</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>10313674.91033312</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>10230572.82033312</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>10106474.31553312</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>10041581.41553312</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>10041581.41553312</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>11253300.00593312</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>11221260.64593312</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>11488082.09913312</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>11661150.97913312</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>11711412.47913312</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>11685380.49913312</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>11334593.48013312</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>11335373.48013312</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>10571779.90113312</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>9728063.569133123</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>8104915.879133124</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>5977222.996533122</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>4931837.819633121</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>4866149.121633121</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>4950907.043133121</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>4119233.634433121</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-6248308.26553061</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31420,9 +31420,11 @@
         <v>-6663797.38848394</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31457,9 +31459,11 @@
         <v>-8306887.80018394</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>3.068</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -31531,9 +31535,11 @@
         <v>-8191746.35018394</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>3.041</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -31679,9 +31685,11 @@
         <v>-8227790.630183939</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -31716,9 +31724,11 @@
         <v>-8191746.350183939</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>3.065</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -31753,9 +31763,11 @@
         <v>-8134676.240183938</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>3.073</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -31790,9 +31802,11 @@
         <v>-8174725.440183938</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>3.081</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -31827,9 +31841,11 @@
         <v>-8261527.671183938</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -31864,9 +31880,11 @@
         <v>-8169414.511183938</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>3.052</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -31901,9 +31919,11 @@
         <v>-8144383.761183938</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>3.058</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -31938,9 +31958,11 @@
         <v>-8209463.711183938</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>3.072</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
